--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:26:05+00:00</t>
+    <t>2023-01-30T20:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:52:57+00:00</t>
+    <t>2023-02-02T13:13:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:13:30+00:00</t>
+    <t>2023-02-02T17:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:32:40+00:00</t>
+    <t>2023-02-03T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-definitely-close</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-definitely-close</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T18:03:32+00:00</t>
+    <t>2023-02-09T17:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:07:44+00:00</t>
+    <t>2023-02-09T17:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:20:33+00:00</t>
+    <t>2023-02-13T11:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:08:40+00:00</t>
+    <t>2023-02-15T14:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-definitely-close</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-definitely-close</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RORHealthCareServiceDefinitelyClose</t>
+    <t>RORHealthcareServiceDefinitelyClose</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:28:48+00:00</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-healthcareservice-definitely-close.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
